--- a/biology/Microbiologie/Cohnilembidae/Cohnilembidae.xlsx
+++ b/biology/Microbiologie/Cohnilembidae/Cohnilembidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cohnilembidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l’ordre des Hymenostomatida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Cohnilembus, composé du préfixe cohn, par allusion au microbiologiste allemand F. Cohn, descripteur du genre Lembus en 1866, et du mot de grec ancien λέμβος / Lembos), « chaloupe, petit navire », littéralement « navire de Cohn ».
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cohnilembidae ont une taille moyenne. Ils sont minces, en forme de doigt, effilés, pointant vers l'avant. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c. à d. uniforme), avec un ou plusieurs longs cils caudaux. En région buccale la ciliation s'étend le long de la partie antérieure effilée, avec le polykinétide oral 1, très long par rapport aux deux autres polykinétides oraux et avec des dikinétides denses, formant une fausse « double membrane » bien visible.
-La scutica[note 1] est composée de plusieurs kinétosomes disposés en triangle, certains traînant vers l'arrière en forme de feuillet triangulaire au niveau du méridien antérieur, lequel est à l'origine des kinétosomes pour tous les polykinétides oraux. Leur macronoyau est globulaire à ellipsoïde ou en forme de ruban. Un micronoyau est présent ainsi qu'une vacuole contractile. Un cytoprocte (anus) est présent. Ils sont bactérivores[1].
+La scutica[note 1] est composée de plusieurs kinétosomes disposés en triangle, certains traînant vers l'arrière en forme de feuillet triangulaire au niveau du méridien antérieur, lequel est à l'origine des kinétosomes pour tous les polykinétides oraux. Leur macronoyau est globulaire à ellipsoïde ou en forme de ruban. Un micronoyau est présent ainsi qu'une vacuole contractile. Un cytoprocte (anus) est présent. Ils sont bactérivores.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cohnilembidae vivent dans des habitats terrestres marins et salins, notamment le Grand Lac Salé[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cohnilembidae vivent dans des habitats terrestres marins et salins, notamment le Grand Lac Salé.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (17 septembre 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (17 septembre 2023) :
 Cohnilembus Kahl, 1933
 Genre synonyme : Lembus Cohn, 1866
 Espèce type : Cohnilembus verminus (Müller, 1786) Kahl, 1933
@@ -640,9 +660,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Cohnilembidae Kahl, 1933[3]. Le nom de genre Limbus Cohn, 1866 étant homonyme du genre Limbus Guenther 1860 (un poisson), Kahl l'a remplacé par Cohnilembus, ce qui a permis, non seulement de lever l'ambiguïté, mais de rappeler le nom de l'auteur (Cohn) et le nom de genre Lembus créé à tort.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Cohnilembidae Kahl, 1933. Le nom de genre Limbus Cohn, 1866 étant homonyme du genre Limbus Guenther 1860 (un poisson), Kahl l'a remplacé par Cohnilembus, ce qui a permis, non seulement de lever l'ambiguïté, mais de rappeler le nom de l'auteur (Cohn) et le nom de genre Lembus créé à tort.
 </t>
         </is>
       </c>
